--- a/data/Subset2_WithDialogActs/TalkBack.Year2.Koski.Spring.030221-2.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year2.Koski.Spring.030221-2.xlsx_with_dialog_acts.xlsx
@@ -639,12 +639,12 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -933,12 +933,12 @@
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1338,12 +1338,12 @@
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1536,12 +1536,12 @@
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1662,12 +1662,12 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1742,12 +1742,12 @@
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2020,12 +2020,12 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2181,12 +2181,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2295,12 +2295,12 @@
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2413,12 +2413,12 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2456,12 +2456,12 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2582,12 +2582,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3319,12 +3319,12 @@
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3716,12 +3716,12 @@
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -3801,12 +3801,12 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4053,12 +4053,12 @@
       <c r="H89" t="inlineStr"/>
       <c r="I89" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4095,12 +4095,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4137,12 +4137,12 @@
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4347,12 +4347,12 @@
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4389,12 +4389,12 @@
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -4431,12 +4431,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4515,12 +4515,12 @@
       <c r="H100" t="inlineStr"/>
       <c r="I100" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5547,12 +5547,12 @@
       <c r="H125" t="inlineStr"/>
       <c r="I125" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5757,12 +5757,12 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7137,12 +7137,12 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7564,12 +7564,12 @@
       <c r="H174" t="inlineStr"/>
       <c r="I174" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8195,12 +8195,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8569,12 +8569,12 @@
       <c r="H198" t="inlineStr"/>
       <c r="I198" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8695,12 +8695,12 @@
       <c r="H201" t="inlineStr"/>
       <c r="I201" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8809,12 +8809,12 @@
       <c r="H204" t="inlineStr"/>
       <c r="I204" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8893,12 +8893,12 @@
       <c r="H206" t="inlineStr"/>
       <c r="I206" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8935,12 +8935,12 @@
       <c r="H207" t="inlineStr"/>
       <c r="I207" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8977,12 +8977,12 @@
       <c r="H208" t="inlineStr"/>
       <c r="I208" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9061,12 +9061,12 @@
       <c r="H210" t="inlineStr"/>
       <c r="I210" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9271,12 +9271,12 @@
       <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
